--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -620,6 +620,36 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,6 +659,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -653,62 +692,23 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3165,28 +3165,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3491,8 +3491,8 @@
   </sheetPr>
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,23 +3516,23 @@
       <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -3541,12 +3541,12 @@
       <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="15">
@@ -3555,12 +3555,12 @@
       <c r="D6" s="14">
         <v>9090</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="15">
@@ -3569,12 +3569,12 @@
       <c r="D7" s="14">
         <v>11090</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="15">
@@ -3583,10 +3583,10 @@
       <c r="D8" s="14">
         <v>8990</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="15">
@@ -3595,12 +3595,12 @@
       <c r="D9" s="14">
         <v>11090</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="15">
@@ -3609,12 +3609,12 @@
       <c r="D10" s="14">
         <v>11490</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="15">
@@ -3623,12 +3623,12 @@
       <c r="D11" s="14">
         <v>12790</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="19">
@@ -3637,12 +3637,12 @@
       <c r="D12" s="18">
         <v>13590</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="19">
@@ -3651,12 +3651,12 @@
       <c r="D13" s="18">
         <v>15690</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="15">
@@ -3665,12 +3665,12 @@
       <c r="D14" s="14">
         <v>22990</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="15">
@@ -3679,12 +3679,12 @@
       <c r="D15" s="14">
         <v>22990</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="15">
@@ -3694,10 +3694,10 @@
         <f>27990</f>
         <v>27990</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="15">
@@ -3706,12 +3706,12 @@
       <c r="D17" s="14">
         <v>17490</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="19">
@@ -3720,12 +3720,12 @@
       <c r="D18" s="18">
         <v>19490</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="15">
@@ -3734,10 +3734,10 @@
       <c r="D19" s="14">
         <v>19990</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="15">
@@ -3747,22 +3747,22 @@
         <f>12990</f>
         <v>12990</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="8"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="15">
@@ -3771,12 +3771,12 @@
       <c r="D23" s="14">
         <v>33990</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="15">
@@ -3785,33 +3785,33 @@
       <c r="D24" s="14">
         <v>39990</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="17"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="50"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3824,7 +3824,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B26" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -241,7 +241,7 @@
     <t xml:space="preserve"> GT NEO  2(8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 16-02-2021)</t>
+    <t xml:space="preserve"> (Last Update 28-02-2021)</t>
   </si>
 </sst>
 </file>
@@ -3492,7 +3492,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,16 +3711,16 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>18210</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>19490</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>38</v>
       </c>
     </row>

--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -241,7 +241,7 @@
     <t xml:space="preserve"> GT NEO  2(8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 28-02-2021)</t>
+    <t xml:space="preserve"> (Last Update 01-03-2021)</t>
   </si>
 </sst>
 </file>
@@ -3491,8 +3491,8 @@
   </sheetPr>
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -3491,8 +3491,8 @@
   </sheetPr>
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -3491,8 +3491,8 @@
   </sheetPr>
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Model</t>
   </si>
@@ -232,16 +232,13 @@
     <t xml:space="preserve"> Narzo 30 (6GB+128GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Narzo 30A (4GB+64GB) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> GT Master </t>
   </si>
   <si>
     <t xml:space="preserve"> GT NEO  2(8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 01-03-2021)</t>
+    <t xml:space="preserve"> (Last Update 23-03-2021)</t>
   </si>
 </sst>
 </file>
@@ -838,13 +835,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>313490</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>294250</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -862,7 +859,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="513515" y="10470999"/>
+          <a:off x="513515" y="9966174"/>
           <a:ext cx="4886135" cy="244738"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="189" cy="262"/>
@@ -3151,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,10 +3486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,7 +3522,7 @@
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -3546,31 +3543,31 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="15">
-        <v>8590</v>
-      </c>
-      <c r="D6" s="14">
-        <v>9090</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>38</v>
+      <c r="C6" s="19">
+        <v>8690</v>
+      </c>
+      <c r="D6" s="18">
+        <v>9190</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15">
-        <v>10460</v>
-      </c>
-      <c r="D7" s="14">
-        <v>11090</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>38</v>
+      <c r="C7" s="19">
+        <v>10650</v>
+      </c>
+      <c r="D7" s="18">
+        <v>11290</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3586,17 +3583,17 @@
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="15">
-        <v>10510</v>
-      </c>
-      <c r="D9" s="14">
-        <v>11090</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>38</v>
+      <c r="C9" s="19">
+        <v>10700</v>
+      </c>
+      <c r="D9" s="18">
+        <v>11290</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3632,27 +3629,27 @@
         <v>49</v>
       </c>
       <c r="C12" s="19">
-        <v>12890</v>
+        <v>12980</v>
       </c>
       <c r="D12" s="18">
-        <v>13590</v>
+        <v>13690</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>14880</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>15690</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>42</v>
+      <c r="E13" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,89 +3733,76 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="15">
-        <v>12240</v>
-      </c>
-      <c r="D20" s="14">
-        <f>12990</f>
-        <v>12990</v>
-      </c>
+    <row r="20" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="15">
+        <v>31990</v>
+      </c>
+      <c r="D22" s="14">
+        <v>33990</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="15">
-        <v>31990</v>
+        <v>37340</v>
       </c>
       <c r="D23" s="14">
-        <v>33990</v>
+        <v>39990</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="15">
-        <v>37340</v>
-      </c>
-      <c r="D24" s="14">
-        <v>39990</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
+    <row r="24" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="41" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="42"/>
+    <row r="26" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
@@ -3826,7 +3810,7 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B26" numberStoredAsText="1"/>
+    <ignoredError sqref="B25" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/2022/Price List/Realme Price List 16.02.2022.xlsx
+++ b/2022/Price List/Realme Price List 16.02.2022.xlsx
@@ -238,7 +238,7 @@
     <t xml:space="preserve"> GT NEO  2(8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 23-03-2021)</t>
+    <t xml:space="preserve"> (Last Update 24-03-2021)</t>
   </si>
 </sst>
 </file>
@@ -3489,7 +3489,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
